--- a/X/meritve.xlsx
+++ b/X/meritve.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,12 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>U_s</t>
   </si>
   <si>
     <t>U_E</t>
+  </si>
+  <si>
+    <t>AVG:</t>
+  </si>
+  <si>
+    <t>I_x</t>
+  </si>
+  <si>
+    <t>I_y</t>
+  </si>
+  <si>
+    <t>Sipani</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
@@ -350,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -787,4 +803,266 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>120.15</v>
+      </c>
+      <c r="F3">
+        <f>E3-$E$8</f>
+        <v>-0.76999999999999602</v>
+      </c>
+      <c r="G3">
+        <v>137.35</v>
+      </c>
+      <c r="H3">
+        <f>G3-$G$8</f>
+        <v>-1.0200000000000102</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.37</v>
+      </c>
+      <c r="N3">
+        <f>M3-$M$8</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P3">
+        <f>O3-$O$8</f>
+        <v>8.1999999999999962E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>118.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F7" si="0">E4-$E$8</f>
+        <v>-2.4200000000000017</v>
+      </c>
+      <c r="G4">
+        <v>137.55000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4-$G$8</f>
+        <v>-0.81999999999999318</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0.48</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N8" si="2">M4-$M$8</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.4</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="3">O4-$O$8</f>
+        <v>-8.7999999999999967E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>122.85</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.9299999999999926</v>
+      </c>
+      <c r="G5">
+        <v>140.1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.7299999999999898</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0.4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.48</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>119.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-1.4200000000000017</v>
+      </c>
+      <c r="G6">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.82999999999998408</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0.33</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>-0.06</v>
+      </c>
+      <c r="O6">
+        <v>0.42</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>-6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>123.6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2.6799999999999926</v>
+      </c>
+      <c r="G7">
+        <v>137.65</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-0.71999999999999886</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0.37</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>8.1999999999999962E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(E3:E7)</f>
+        <v>120.92</v>
+      </c>
+      <c r="F8">
+        <v>2.4</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(G3:G7)</f>
+        <v>138.37</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(M3:M7)</f>
+        <v>0.39</v>
+      </c>
+      <c r="N8">
+        <v>0.1</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(O3:O7)</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/X/meritve.xlsx
+++ b/X/meritve.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>U_s</t>
   </si>
@@ -46,6 +46,48 @@
   </si>
   <si>
     <t>delta</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.001 circa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho </t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>101kPa</t>
+  </si>
+  <si>
+    <t>24C</t>
+  </si>
+  <si>
+    <t>40% rel vla</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>1,17 kgm-3</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2.18E-09</t>
+  </si>
+  <si>
+    <t>3.36E-09</t>
   </si>
 </sst>
 </file>
@@ -82,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J26"/>
+  <dimension ref="C2:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -392,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>0.9</v>
       </c>
@@ -412,7 +455,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1.7</v>
       </c>
@@ -432,7 +475,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>6.6</v>
       </c>
@@ -452,7 +495,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>7.7</v>
       </c>
@@ -472,7 +515,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>14.4</v>
       </c>
@@ -491,8 +534,14 @@
       <c r="J7">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>17.2</v>
       </c>
@@ -511,8 +560,11 @@
       <c r="J8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>21.4</v>
       </c>
@@ -531,8 +583,11 @@
       <c r="J9">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>26</v>
       </c>
@@ -551,8 +606,11 @@
       <c r="J10">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>31.7</v>
       </c>
@@ -571,8 +629,11 @@
       <c r="J11">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>34.700000000000003</v>
       </c>
@@ -592,7 +653,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>46.4</v>
       </c>
@@ -611,8 +672,17 @@
       <c r="J13">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>49.5</v>
       </c>
@@ -632,7 +702,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>57.8</v>
       </c>
@@ -652,7 +722,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>64.2</v>
       </c>
@@ -800,17 +870,32 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>1.1800000000000001E-9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:P8"/>
+  <dimension ref="D1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,14 +1137,60 @@
         <v>0.39</v>
       </c>
       <c r="N8">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="O8">
         <f>AVERAGE(O3:O7)</f>
         <v>0.48799999999999999</v>
       </c>
       <c r="P8">
-        <v>0.1</v>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>121</v>
+      </c>
+      <c r="G9">
+        <v>138</v>
+      </c>
+      <c r="M9">
+        <v>0.39</v>
+      </c>
+      <c r="O9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f>(G8-E8)/(E8+G8)</f>
+        <v>6.729916309923252E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <f>(O8-M8)/(M8+O8)</f>
+        <v>0.11161731207289291</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>(G9-E9)/(E9+G9)</f>
+        <v>6.5637065637065631E-2</v>
+      </c>
+      <c r="M12">
+        <f>(O9-M9)/(M9+O9)</f>
+        <v>0.1136363636363636</v>
       </c>
     </row>
   </sheetData>
